--- a/Diagram/Use Case/Use Case List.xlsx
+++ b/Diagram/Use Case/Use Case List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\GitHub\Team project\Design_pattern_Java\Diagram\Use Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2548C749-618C-4821-B7E9-3743E287CC24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30B791-C21C-49F3-B6CC-8DA9EB926DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15492" yWindow="1992" windowWidth="18432" windowHeight="9768" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
@@ -57,10 +57,10 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={B819E8EC-CCB0-401B-91BA-6B82326D4673}</author>
+    <author>tc={50920224-2B1E-45A4-98A4-763D8B5AA82B}</author>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{B819E8EC-CCB0-401B-91BA-6B82326D4673}">
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{50920224-2B1E-45A4-98A4-763D8B5AA82B}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1"/>
@@ -148,10 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>출퇴근 관리</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>직원 월급 관리</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -221,10 +217,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>사장/직원은 직원 출근/퇴근을 변경한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>사장은 모든 직원의 월급을 조회한다.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -609,6 +601,55 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>은 직원의 월급을 기입/변경한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 모든 직원의 월급을 조회한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 배달에 배정되는 주문을 입력/취소한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -629,74 +670,406 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>은 주문서를 출력한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 영수증을 출력한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 배달에 배정되는 주문을 입력/취소한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>물품 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 물품을 조회한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>테이블 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 테이블을 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>필요 물품 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 차후 필요 물품을 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 잔액을 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>잔액 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 물품을 조회한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 차후 필요 물품을 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 테이블을 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 잔액을 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 홀에 배정되는 주문을 입력/취소한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 포장에 배정되는 주문을 입력/취소한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 주문서를 출력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 영수증을 출력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 상품권을 추가/제거한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출퇴근 시간 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원 근퇴 변경</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>주문 등록</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 주문 리스트를 출력한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 직원 리스트를 조회한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>은 직원 출근/퇴근을 변경한다.</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 직원의 월급을 기입/변경한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 모든 직원의 월급을 조회한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 배달에 배정되는 주문을 입력/취소한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>근퇴 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 자신의 근퇴를 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출근 등록</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>퇴근 등록</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 자신의 출근 상태를 등록한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 자신의 퇴근 상태를 등록한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -721,6 +1094,49 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>은 주문을 입력/취소한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>은 홀에 배정되는 주문을 입력/취소한다.</t>
     </r>
     <phoneticPr fontId="1"/>
@@ -739,6 +1155,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -771,25 +1188,6 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
@@ -805,30 +1203,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 주문서를 출력한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
+      <t>은 자신의 근퇴를 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -847,31 +1226,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 영수증을 출력한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
+      <t>은 자신의 출근 상태를 등록한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -890,282 +1249,24 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 배달에 배정되는 주문을 입력/취소한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>물품 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 물품을 조회한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>테이블 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 테이블을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>필요 물품 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 차후 필요 물품을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>주문 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 주문 리스트를 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 잔액을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>잔액 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 직원 리스트를 조회한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 물품을 조회한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 차후 필요 물품을 조회한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 테이블을 조회한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>직원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 직원 리스트를 조회한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>직원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 주문 리스트를 조회한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>직원</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 잔액을 조회한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 홀에 배정되는 주문을 입력/취소한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 포장에 배정되는 주문을 입력/취소한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 주문서를 출력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 영수증을 출력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 상품권을 추가/제거한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출퇴근 시간 관리</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원 근퇴 변경</t>
+      <t>은 자신의 퇴근 상태를 등록한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 주문을 입력/취소한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 주문 리스트를 출력한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 직원 리스트를 조회한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 직원 출근/퇴근을 변경한다.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1173,7 +1274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1223,6 +1324,12 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1493,7 +1600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1581,12 +1688,6 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1620,40 +1721,52 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1664,10 +1777,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF4BFBF"/>
       <color rgb="FF9A86A4"/>
       <color rgb="FFB7E5DD"/>
       <color rgb="FFFAF0D7"/>
-      <color rgb="FFF4BFBF"/>
       <color rgb="FFF1F0C0"/>
       <color rgb="FF8CC0DE"/>
       <color rgb="FFFFD9C0"/>
@@ -1996,7 +2109,7 @@
 
 <file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B6" dT="2022-05-21T07:31:52.03" personId="{64FC48D3-7068-46B9-9772-5BCAF94C40B5}" id="{B819E8EC-CCB0-401B-91BA-6B82326D4673}">
+  <threadedComment ref="B6" dT="2022-05-21T07:31:52.03" personId="{64FC48D3-7068-46B9-9772-5BCAF94C40B5}" id="{50920224-2B1E-45A4-98A4-763D8B5AA82B}">
     <text>주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</text>
   </threadedComment>
@@ -2005,10 +2118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5023497-C90F-439D-A4EA-B0F186C397DA}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2027,18 +2140,18 @@
     </row>
     <row r="2" spans="1:2" ht="18.600000000000001" thickTop="1">
       <c r="A2" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>57</v>
+      <c r="B3" s="37" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2046,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2054,7 +2167,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2062,194 +2175,226 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="A7" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="19.2" thickTop="1" thickBot="1">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="19.2" thickTop="1" thickBot="1">
+      <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" thickTop="1">
-      <c r="A9" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>40</v>
+      <c r="B9" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.600000000000001" thickTop="1">
+      <c r="A10" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="39" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="11" t="s">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>75</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B15" s="12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A16" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18.600000000000001" thickTop="1">
+      <c r="A17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="A15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.600000000000001" thickTop="1">
-      <c r="A16" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="17" t="s">
-        <v>72</v>
+        <v>26</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B20" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A21" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18.600000000000001" thickTop="1">
+      <c r="A22" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="35" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="A20" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="20" t="s">
+    <row r="24" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A24" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.600000000000001" thickTop="1">
-      <c r="A21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="A23" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18.600000000000001" thickTop="1">
-      <c r="A24" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>51</v>
+    <row r="25" spans="1:2" ht="18.600000000000001" thickTop="1">
+      <c r="A25" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A31" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B31" s="43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18.600000000000001" thickTop="1">
+      <c r="A32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18.600000000000001" thickBot="1">
+      <c r="A33" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="A27" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18.600000000000001" thickTop="1">
-      <c r="A28" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="18.600000000000001" thickBot="1">
-      <c r="A29" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="34" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18.600000000000001" thickTop="1"/>
+    <row r="34" spans="1:2" ht="18.600000000000001" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2259,17 +2404,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="9.296875" style="35" customWidth="1"/>
-    <col min="2" max="2" width="23.3984375" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="35"/>
+    <col min="1" max="1" width="9.296875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="23.3984375" style="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1">
@@ -2281,230 +2426,262 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="18" thickTop="1">
-      <c r="A2" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>70</v>
+      <c r="A2" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="45" t="s">
-        <v>80</v>
+      <c r="B3" s="47" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>56</v>
+      <c r="B4" s="49" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="47" t="s">
-        <v>81</v>
+      <c r="B5" s="49" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="47" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18" thickBot="1">
-      <c r="A7" s="48" t="s">
+      <c r="B6" s="49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="A8" s="50" t="s">
+      <c r="B7" s="51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" thickBot="1">
+      <c r="A8" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1">
+      <c r="A9" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="51" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18" thickTop="1">
-      <c r="A9" s="42" t="s">
+      <c r="B9" s="55" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" thickTop="1">
+      <c r="A10" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B13" s="49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="46" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="47" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="46" t="s">
+      <c r="B14" s="49" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="48" t="s">
         <v>11</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="18" thickBot="1">
-      <c r="A15" s="48" t="s">
-        <v>12</v>
       </c>
       <c r="B15" s="49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18" thickTop="1">
-      <c r="A16" s="44" t="s">
+    <row r="16" spans="1:2" ht="18" thickBot="1">
+      <c r="A16" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" thickTop="1">
+      <c r="A17" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="47" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B18" s="49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="46" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" thickBot="1">
+      <c r="A21" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" thickTop="1">
+      <c r="A22" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" thickBot="1">
+      <c r="A24" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" thickTop="1">
+      <c r="A25" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="48" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="48" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="49" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="48" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" thickBot="1">
+      <c r="A31" s="52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="53" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" thickTop="1">
+      <c r="A32" s="44" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" thickBot="1">
+      <c r="A33" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="47" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="47" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="18" thickBot="1">
-      <c r="A20" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="B20" s="53" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickTop="1">
-      <c r="A21" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B22" s="47" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="18" thickBot="1">
-      <c r="A23" s="52" t="s">
-        <v>16</v>
-      </c>
-      <c r="B23" s="53" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" thickTop="1">
-      <c r="A24" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="46" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="18" thickBot="1">
-      <c r="A27" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="18" thickTop="1">
-      <c r="A28" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="43" t="s">
+      <c r="B33" s="53" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="18" thickBot="1">
-      <c r="A29" s="48" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="18" thickTop="1"/>
+    <row r="34" spans="1:2" ht="18" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Diagram/Use Case/Use Case List.xlsx
+++ b/Diagram/Use Case/Use Case List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Workspace\GitHub\Team project\Design_pattern_Java\Diagram\Use Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\Github\Team Project\Design_pattern_Java\Diagram\Use Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30B791-C21C-49F3-B6CC-8DA9EB926DB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7081823-8668-4EA7-8BDC-4D73862BE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15492" yWindow="1992" windowWidth="18432" windowHeight="9768" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
   <sheets>
     <sheet name="색 분류" sheetId="2" r:id="rId1"/>
@@ -24,9 +24,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -43,11 +41,21 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{7CC751C1-88BE-4E01-AE84-924DCB8D206A}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -62,11 +70,21 @@
   <commentList>
     <comment ref="B6" authorId="0" shapeId="0" xr:uid="{50920224-2B1E-45A4-98A4-763D8B5AA82B}">
       <text>
-        <t>[스레드 댓글]
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="맑은 고딕"/>
+            <family val="2"/>
+            <charset val="128"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
 댓글:
     주문서 : 주문한 내역을 출력 (주방에 사용)
 영수증 : 계산한 내역을 출력 (손님에 사용)</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -74,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1"/>
@@ -1267,6 +1285,30 @@
   </si>
   <si>
     <t>사장은 직원 출근/퇴근을 변경한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>스트레티지 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>옵저버 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>적용 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>커맨드 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>팩토리 패턴</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1274,18 +1316,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1324,12 +1366,6 @@
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1388,7 +1424,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1594,13 +1630,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1736,38 +1857,62 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2124,13 +2269,13 @@
       <selection activeCell="B33" sqref="A1:B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="19.2" thickTop="1" thickBot="1">
+    <row r="1" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -2138,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="18.600000000000001" thickTop="1">
+    <row r="2" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>78</v>
       </c>
@@ -2146,7 +2291,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
@@ -2154,7 +2299,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -2162,7 +2307,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2170,7 +2315,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2178,7 +2323,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
@@ -2186,7 +2331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="5" t="s">
         <v>64</v>
       </c>
@@ -2194,7 +2339,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="19.2" thickTop="1" thickBot="1">
+    <row r="9" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -2202,7 +2347,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="18.600000000000001" thickTop="1">
+    <row r="10" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A10" s="38" t="s">
         <v>57</v>
       </c>
@@ -2210,7 +2355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
@@ -2218,7 +2363,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -2226,7 +2371,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
         <v>62</v>
       </c>
@@ -2234,7 +2379,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
@@ -2242,7 +2387,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
         <v>11</v>
       </c>
@@ -2250,7 +2395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A16" s="13" t="s">
         <v>12</v>
       </c>
@@ -2258,7 +2403,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="18.600000000000001" thickTop="1">
+    <row r="17" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2411,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="17" t="s">
         <v>26</v>
       </c>
@@ -2274,7 +2419,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="17" t="s">
         <v>66</v>
       </c>
@@ -2282,7 +2427,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="17" t="s">
         <v>13</v>
       </c>
@@ -2290,7 +2435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="19" t="s">
         <v>14</v>
       </c>
@@ -2298,7 +2443,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="18.600000000000001" thickTop="1">
+    <row r="22" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A22" s="21" t="s">
         <v>60</v>
       </c>
@@ -2306,7 +2451,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="34" t="s">
         <v>15</v>
       </c>
@@ -2314,7 +2459,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A24" s="23" t="s">
         <v>16</v>
       </c>
@@ -2322,7 +2467,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="18.600000000000001" thickTop="1">
+    <row r="25" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A25" s="25" t="s">
         <v>59</v>
       </c>
@@ -2330,7 +2475,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="27" t="s">
         <v>17</v>
       </c>
@@ -2338,7 +2483,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="27" t="s">
         <v>76</v>
       </c>
@@ -2346,7 +2491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="27" t="s">
         <v>77</v>
       </c>
@@ -2354,7 +2499,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="27" t="s">
         <v>82</v>
       </c>
@@ -2362,7 +2507,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="27" t="s">
         <v>84</v>
       </c>
@@ -2370,7 +2515,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A31" s="42" t="s">
         <v>85</v>
       </c>
@@ -2378,7 +2523,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="18.600000000000001" thickTop="1">
+    <row r="32" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A32" s="29" t="s">
         <v>18</v>
       </c>
@@ -2386,7 +2531,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="18.600000000000001" thickBot="1">
+    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A33" s="31" t="s">
         <v>27</v>
       </c>
@@ -2394,7 +2539,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="18.600000000000001" thickTop="1"/>
+    <row r="34" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2404,287 +2549,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.296875" style="33" customWidth="1"/>
     <col min="2" max="2" width="23.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.796875" style="33"/>
+    <col min="3" max="3" width="8.796875" style="50"/>
+    <col min="4" max="16384" width="8.796875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" thickTop="1">
+      <c r="C1" s="63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="53" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="46" t="s">
+      <c r="C2" s="62" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="54" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="48" t="s">
+      <c r="C3" s="59"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="55" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="48" t="s">
+      <c r="C4" s="59"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="55" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="48" t="s">
+      <c r="C5" s="59"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="55" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="50" t="s">
+      <c r="C6" s="59"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1">
-      <c r="A8" s="52" t="s">
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="48" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="57" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1">
-      <c r="A9" s="54" t="s">
+      <c r="C8" s="60" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="58" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" thickTop="1">
+      <c r="C9" s="60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A10" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="53" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="48" t="s">
+      <c r="C10" s="60"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="55" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="48" t="s">
+      <c r="C11" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="55" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="48" t="s">
+      <c r="C12" s="60"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="55" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="48" t="s">
+      <c r="C13" s="60"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="55" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="48" t="s">
+      <c r="C14" s="60"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="55" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1">
-      <c r="A16" s="52" t="s">
+      <c r="C15" s="60"/>
+    </row>
+    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="57" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" thickTop="1">
-      <c r="A17" s="46" t="s">
+      <c r="C16" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="47" t="s">
+      <c r="B17" s="54" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="48" t="s">
+      <c r="C17" s="60"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="55" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="48" t="s">
+      <c r="C18" s="60"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="55" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="48" t="s">
+      <c r="C19" s="60"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="55" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1">
-      <c r="A21" s="50" t="s">
+      <c r="C20" s="60"/>
+    </row>
+    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="56" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" thickTop="1">
+      <c r="C21" s="60"/>
+    </row>
+    <row r="22" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A22" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="53" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="48" t="s">
+      <c r="C22" s="60"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="55" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1">
-      <c r="A24" s="50" t="s">
+      <c r="C23" s="60"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="56" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" thickTop="1">
+      <c r="C24" s="60"/>
+    </row>
+    <row r="25" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A25" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="53" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="48" t="s">
+      <c r="C25" s="60"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="48" t="s">
+      <c r="C26" s="60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A27" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="55" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="48" t="s">
+      <c r="C27" s="60"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A28" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="55" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="48" t="s">
+      <c r="C28" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="55" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="48" t="s">
+      <c r="C29" s="60"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="55" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1">
-      <c r="A31" s="52" t="s">
+      <c r="C30" s="60"/>
+    </row>
+    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="57" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" thickTop="1">
+      <c r="C31" s="60"/>
+    </row>
+    <row r="32" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A32" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="53" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" thickBot="1">
-      <c r="A33" s="52" t="s">
+      <c r="C32" s="60"/>
+    </row>
+    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="57" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" thickTop="1"/>
+      <c r="C33" s="61" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Diagram/Use Case/Use Case List.xlsx
+++ b/Diagram/Use Case/Use Case List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workplace\Github\Team Project\Design_pattern_Java\Diagram\Use Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7081823-8668-4EA7-8BDC-4D73862BE129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD383B6-9365-4C50-89D5-A56577C9E258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DC994511-35F7-4979-840D-1CE092D1B083}"/>
   </bookViews>
   <sheets>
     <sheet name="색 분류" sheetId="2" r:id="rId1"/>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="113">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1"/>
@@ -706,6 +706,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -730,8 +731,48 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 영수증을 출력한다.</t>
-    </r>
+      <t>은 배달에 배정되는 주문을 입력/취소한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>물품 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 물품을 조회한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>테이블 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 테이블을 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>필요 물품 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 차후 필요 물품을 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>주문 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 잔액을 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>잔액 조회</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -753,6 +794,75 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
+      <t>은 물품을 조회한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 차후 필요 물품을 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 테이블을 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -773,48 +883,36 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 배달에 배정되는 주문을 입력/취소한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>물품 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 물품을 조회한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>테이블 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 테이블을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>필요 물품 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 차후 필요 물품을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>주문 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 잔액을 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>잔액 조회</t>
+      <t>은 잔액을 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 홀에 배정되는 주문을 입력/취소한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 포장에 배정되는 주문을 입력/취소한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 주문서를 출력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 상품권을 추가/제거한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출퇴근 시간 관리</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원 근퇴 변경</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>주문 등록</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -831,12 +929,31 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 물품을 조회한다.</t>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 주문 리스트를 출력한다</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -859,7 +976,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 차후 필요 물품을 조회한다</t>
+      <t>은 직원 리스트를 조회한다.</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -882,8 +999,32 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 테이블을 조회한다</t>
-    </r>
+      <t>은 직원 출근/퇴근을 변경한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>근퇴 조회</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 자신의 근퇴를 조회한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>출근 등록</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>퇴근 등록</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 자신의 출근 상태를 등록한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 자신의 퇴근 상태를 등록한다</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -925,40 +1066,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 잔액을 조회한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 홀에 배정되는 주문을 입력/취소한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 포장에 배정되는 주문을 입력/취소한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 주문서를 출력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 영수증을 출력한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 상품권을 추가/제거한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출퇴근 시간 관리</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원 근퇴 변경</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>주문 등록</t>
+      <t>은 주문을 입력/취소한다</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -975,6 +1084,7 @@
     <r>
       <rPr>
         <sz val="11"/>
+        <color theme="1"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -999,7 +1109,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 주문 리스트를 출력한다</t>
+      <t>은 홀에 배정되는 주문을 입력/취소한다.</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1022,76 +1132,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 직원 리스트를 조회한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 직원 출근/퇴근을 변경한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>근퇴 조회</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 자신의 근퇴를 조회한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>출근 등록</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>퇴근 등록</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 자신의 출근 상태를 등록한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>직원은 자신의 퇴근 상태를 등록한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -1112,31 +1152,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 주문을 입력/취소한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
+      <t>은 포장에 배정되는 주문을 입력/취소한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1155,31 +1175,11 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 홀에 배정되는 주문을 입력/취소한다.</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사장</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>/</t>
-    </r>
+      <t>은 자신의 근퇴를 조회한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1198,7 +1198,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 포장에 배정되는 주문을 입력/취소한다.</t>
+      <t>은 자신의 출근 상태를 등록한다</t>
     </r>
     <phoneticPr fontId="1"/>
   </si>
@@ -1221,15 +1221,83 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>은 자신의 근퇴를 조회한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
+      <t>은 자신의 퇴근 상태를 등록한다</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 주문을 입력/취소한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장/직원은 주문 리스트를 출력한다</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 직원 리스트를 조회한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>사장은 직원 출근/퇴근을 변경한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>스트레티지 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>옵저버 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>적용 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>커맨드 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>팩토리 패턴</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>카드 결재</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>현금 결재</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>상품권 결재</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>결재가 완료되면 영수증을 출력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 상품권 결재를 입력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 현금 결재를 입력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>직원은 카드 결재를 입력한다.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1239,20 +1307,19 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 자신의 출근 상태를 등록한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 카드 결재를 입력한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
@@ -1262,53 +1329,56 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>은 자신의 퇴근 상태를 등록한다</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 주문을 입력/취소한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장/직원은 주문 리스트를 출력한다</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 직원 리스트를 조회한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>사장은 직원 출근/퇴근을 변경한다.</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>스트레티지 패턴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>옵저버 패턴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>적용 패턴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>커맨드 패턴</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>팩토리 패턴</t>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 현금 결재를 입력한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 상품권 결재를 입력한다.</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF3259A0"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결재</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가 완료되면 영수증을 출력한다.</t>
+    </r>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1316,7 +1386,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1367,8 +1437,22 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3259A0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,8 +1507,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE7FFE7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1715,13 +1805,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1840,12 +2020,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1902,17 +2076,65 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1922,13 +2144,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF3259A0"/>
+      <color rgb="FFE7FFE7"/>
+      <color rgb="FFE5FFE5"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFCCFF99"/>
+      <color rgb="FF99FF33"/>
+      <color rgb="FF99FF66"/>
       <color rgb="FFF4BFBF"/>
       <color rgb="FF9A86A4"/>
       <color rgb="FFB7E5DD"/>
-      <color rgb="FFFAF0D7"/>
-      <color rgb="FFF1F0C0"/>
-      <color rgb="FF8CC0DE"/>
-      <color rgb="FFFFD9C0"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2263,284 +2488,366 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5023497-C90F-439D-A4EA-B0F186C397DA}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="A1:B33"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="18.296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="46.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.09765625" style="48" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="C1" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+        <v>55</v>
+      </c>
+      <c r="C4" s="62"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+      <c r="C5" s="62"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A7" s="40" t="s">
+      <c r="C6" s="62"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="72" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="69"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="70"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="74" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="70"/>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="6" t="s">
+      <c r="B11" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="71"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="59"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="57"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="57"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="57"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="68"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="57"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="66"/>
+    </row>
+    <row r="25" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="66"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="57"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A18" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A19" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A20" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="26" t="s">
+      <c r="C31" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="27" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A26" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A27" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A28" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A29" s="27" t="s">
+      <c r="B32" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="57"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="28" t="s">
+      <c r="B33" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="C33" s="57"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="41" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A30" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="29" t="s">
+      <c r="C34" s="66"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="30" t="s">
+      <c r="B35" s="30" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="31" t="s">
+      <c r="C35" s="68"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B36" s="32" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+      <c r="C36" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:C6"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2549,339 +2856,366 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8085F00D-6E4C-4FA6-85C8-56EC0970E720}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView showFormulas="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showFormulas="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.296875" style="33" customWidth="1"/>
     <col min="2" max="2" width="23.3984375" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.796875" style="50"/>
+    <col min="3" max="3" width="8.796875" style="48"/>
     <col min="4" max="16384" width="8.796875" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="60" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="61" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="62"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="62"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="62"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="62"/>
+    </row>
+    <row r="7" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="59"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9" s="44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="57"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10" s="44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="64" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="57"/>
+    </row>
+    <row r="11" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="65" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="66"/>
+    </row>
+    <row r="12" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="67" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="59"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="57"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="57"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="57"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="57"/>
+    </row>
+    <row r="19" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="66" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="53" t="s">
+    <row r="20" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="68"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="57"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="57"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23" s="44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="57"/>
+    </row>
+    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="66"/>
+    </row>
+    <row r="25" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="68"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A26" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="57"/>
+    </row>
+    <row r="27" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="66"/>
+    </row>
+    <row r="28" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="51" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="62" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3" s="45" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="54" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="59"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="59"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="59"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="55" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="59"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="56" t="s">
+      <c r="C28" s="68"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A29" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="C29" s="57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A30" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="59"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="48" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="57" t="s">
+      <c r="B30" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="57"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A31" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="60" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.600000000000001" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="60" t="s">
+      <c r="C31" s="57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A32" s="44" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="C32" s="57"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A33" s="44" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="57"/>
+    </row>
+    <row r="34" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="66"/>
+    </row>
+    <row r="35" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="68"/>
+    </row>
+    <row r="36" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="58" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="60"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11" s="46" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="60" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="55" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="60"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13" s="46" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="60"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="60"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15" s="46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="60"/>
-    </row>
-    <row r="16" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A16" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="60"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="46" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="60"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C19" s="60"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="60"/>
-    </row>
-    <row r="21" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="47" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="60"/>
-    </row>
-    <row r="22" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" s="60"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="55" t="s">
-        <v>30</v>
-      </c>
-      <c r="C23" s="60"/>
-    </row>
-    <row r="24" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="47" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="60"/>
-    </row>
-    <row r="25" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="53" t="s">
-        <v>96</v>
-      </c>
-      <c r="C25" s="60"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="60" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="60"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="46" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="C29" s="60"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" s="60"/>
-    </row>
-    <row r="31" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="C31" s="60"/>
-    </row>
-    <row r="32" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B32" s="53" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="60"/>
-    </row>
-    <row r="33" spans="1:3" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B33" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="37" spans="1:3" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
